--- a/DestroyViruses/Assets/Config/ConfigGameLevel.xlsx
+++ b/DestroyViruses/Assets/Config/ConfigGameLevel.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\DestroyViruses\DestroyViruses\Assets\Config\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -73,19 +78,46 @@
   </si>
   <si>
     <t>[1,2,3]</t>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isBoss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alse</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,345 +126,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -440,253 +163,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -696,62 +177,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1038,19 +480,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H4" sqref="H4:H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="27.125" customWidth="1"/>
     <col min="3" max="3" width="29.625" customWidth="1"/>
@@ -1065,7 +507,7 @@
     <col min="14" max="14" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1086,6 +528,9 @@
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1093,7 +538,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1114,6 +559,9 @@
       </c>
       <c r="G2" t="s">
         <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1121,7 +569,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="45" customHeight="1" spans="1:14">
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1143,7 +591,9 @@
       <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1151,7 +601,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1173,14 +623,16 @@
       <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1202,14 +654,16 @@
       <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1231,14 +685,16 @@
       <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1260,14 +716,16 @@
       <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1289,14 +747,16 @@
       <c r="G8" s="2">
         <v>1</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1318,14 +778,16 @@
       <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1347,14 +809,16 @@
       <c r="G10" s="2">
         <v>1</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1376,14 +840,16 @@
       <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1405,14 +871,16 @@
       <c r="G12" s="2">
         <v>1</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1434,14 +902,16 @@
       <c r="G13" s="2">
         <v>1</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1463,14 +933,16 @@
       <c r="G14" s="2">
         <v>1</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1492,14 +964,16 @@
       <c r="G15" s="2">
         <v>1</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1521,14 +995,16 @@
       <c r="G16" s="2">
         <v>1</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1550,14 +1026,16 @@
       <c r="G17" s="2">
         <v>1</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1579,14 +1057,16 @@
       <c r="G18" s="2">
         <v>1</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1608,14 +1088,16 @@
       <c r="G19" s="2">
         <v>1</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1637,14 +1119,16 @@
       <c r="G20" s="2">
         <v>1</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1666,14 +1150,16 @@
       <c r="G21" s="2">
         <v>1</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1695,14 +1181,16 @@
       <c r="G22" s="2">
         <v>1</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1724,14 +1212,16 @@
       <c r="G23" s="2">
         <v>1</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1753,14 +1243,16 @@
       <c r="G24" s="2">
         <v>1</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1782,14 +1274,16 @@
       <c r="G25" s="2">
         <v>1</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1811,14 +1305,16 @@
       <c r="G26" s="2">
         <v>1</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1840,14 +1336,16 @@
       <c r="G27" s="2">
         <v>1</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1869,14 +1367,16 @@
       <c r="G28" s="2">
         <v>1</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1898,14 +1398,16 @@
       <c r="G29" s="2">
         <v>1</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1927,14 +1429,16 @@
       <c r="G30" s="2">
         <v>1</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1956,14 +1460,16 @@
       <c r="G31" s="2">
         <v>1</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1985,14 +1491,16 @@
       <c r="G32" s="2">
         <v>1</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>30</v>
       </c>
@@ -2014,14 +1522,16 @@
       <c r="G33" s="2">
         <v>1</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>31</v>
       </c>
@@ -2043,14 +1553,16 @@
       <c r="G34" s="2">
         <v>1</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>32</v>
       </c>
@@ -2072,14 +1584,16 @@
       <c r="G35" s="2">
         <v>1</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>33</v>
       </c>
@@ -2101,14 +1615,16 @@
       <c r="G36" s="2">
         <v>1</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>34</v>
       </c>
@@ -2130,14 +1646,16 @@
       <c r="G37" s="2">
         <v>1</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>35</v>
       </c>
@@ -2159,14 +1677,16 @@
       <c r="G38" s="2">
         <v>1</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>36</v>
       </c>
@@ -2188,14 +1708,16 @@
       <c r="G39" s="2">
         <v>1</v>
       </c>
-      <c r="H39" s="2"/>
+      <c r="H39" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>37</v>
       </c>
@@ -2217,14 +1739,16 @@
       <c r="G40" s="2">
         <v>1</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>38</v>
       </c>
@@ -2246,14 +1770,16 @@
       <c r="G41" s="2">
         <v>1</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>39</v>
       </c>
@@ -2275,14 +1801,16 @@
       <c r="G42" s="2">
         <v>1</v>
       </c>
-      <c r="H42" s="2"/>
+      <c r="H42" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>40</v>
       </c>
@@ -2304,14 +1832,16 @@
       <c r="G43" s="2">
         <v>1</v>
       </c>
-      <c r="H43" s="2"/>
+      <c r="H43" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>41</v>
       </c>
@@ -2333,14 +1863,16 @@
       <c r="G44" s="2">
         <v>1</v>
       </c>
-      <c r="H44" s="2"/>
+      <c r="H44" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>42</v>
       </c>
@@ -2362,14 +1894,16 @@
       <c r="G45" s="2">
         <v>1</v>
       </c>
-      <c r="H45" s="2"/>
+      <c r="H45" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>43</v>
       </c>
@@ -2391,7 +1925,9 @@
       <c r="G46" s="2">
         <v>1</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -2399,40 +1935,34 @@
       <c r="N46" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/DestroyViruses/Assets/Config/ConfigGameLevel.xlsx
+++ b/DestroyViruses/Assets/Config/ConfigGameLevel.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\DestroyViruses\DestroyViruses\Assets\Config\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14865"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,6 +39,9 @@
     <t>virusHpFactor</t>
   </si>
   <si>
+    <t>isBoss</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -54,6 +52,9 @@
   </si>
   <si>
     <t>float</t>
+  </si>
+  <si>
+    <t>bool</t>
   </si>
   <si>
     <t>ID</t>
@@ -77,22 +78,20 @@
     <t>病毒血量调节因素</t>
   </si>
   <si>
+    <t>BOSS关卡</t>
+  </si>
+  <si>
     <t>[1,2,3]</t>
   </si>
   <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS关卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isBoss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>f</t>
     </r>
     <r>
@@ -100,24 +99,27 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>alse</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,36 +128,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -163,11 +474,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -177,23 +730,62 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -480,19 +1072,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H46"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="27.125" customWidth="1"/>
     <col min="3" max="3" width="29.625" customWidth="1"/>
@@ -507,7 +1099,7 @@
     <col min="14" max="14" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -529,8 +1121,8 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>21</v>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -538,30 +1130,30 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -569,29 +1161,29 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" s="1" customFormat="1" ht="45" customHeight="1" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="3"/>
@@ -601,7 +1193,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>1</v>
       </c>
@@ -609,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -623,7 +1215,7 @@
       <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I4" s="2"/>
@@ -632,7 +1224,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2</v>
       </c>
@@ -640,21 +1232,21 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="2"/>
@@ -663,7 +1255,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>3</v>
       </c>
@@ -671,21 +1263,21 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>0.935</v>
       </c>
       <c r="E6" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I6" s="2"/>
@@ -694,7 +1286,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>4</v>
       </c>
@@ -702,21 +1294,21 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="E7" s="2">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="F7" s="2">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7" t="s">
+        <v>2.5</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I7" s="2"/>
@@ -725,7 +1317,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>5</v>
       </c>
@@ -733,21 +1325,21 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>0.905</v>
       </c>
       <c r="E8" s="2">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="F8" s="2">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="2"/>
@@ -756,7 +1348,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>6</v>
       </c>
@@ -764,21 +1356,21 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="E9" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F9" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7" t="s">
+        <v>3.5</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I9" s="2"/>
@@ -787,7 +1379,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>7</v>
       </c>
@@ -795,21 +1387,21 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="E10" s="2">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="F10" s="2">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="2"/>
@@ -818,7 +1410,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>8</v>
       </c>
@@ -826,21 +1418,21 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2">
-        <v>1</v>
+        <v>0.860000000000001</v>
       </c>
       <c r="E11" s="2">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="F11" s="2">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="G11" s="2">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7" t="s">
+        <v>4.5</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I11" s="2"/>
@@ -849,7 +1441,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>9</v>
       </c>
@@ -857,21 +1449,21 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2">
-        <v>1</v>
+        <v>0.845000000000001</v>
       </c>
       <c r="E12" s="2">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="F12" s="2">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="G12" s="2">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I12" s="2"/>
@@ -880,7 +1472,7 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>10</v>
       </c>
@@ -888,21 +1480,21 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2">
-        <v>1</v>
+        <v>0.830000000000001</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="F13" s="2">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7" t="s">
+        <v>5.5</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I13" s="2"/>
@@ -911,7 +1503,7 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>11</v>
       </c>
@@ -919,21 +1511,21 @@
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2">
-        <v>1</v>
+        <v>0.815000000000001</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="2">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I14" s="2"/>
@@ -942,7 +1534,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>12</v>
       </c>
@@ -950,21 +1542,21 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2">
-        <v>1</v>
+        <v>0.800000000000001</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="F15" s="2">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7" t="s">
+        <v>6.5</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I15" s="2"/>
@@ -973,7 +1565,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>13</v>
       </c>
@@ -981,21 +1573,21 @@
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D16" s="2">
-        <v>1</v>
+        <v>0.785000000000001</v>
       </c>
       <c r="E16" s="2">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="F16" s="2">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="G16" s="2">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I16" s="2"/>
@@ -1004,7 +1596,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1012,21 +1604,21 @@
         <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2">
-        <v>1</v>
+        <v>0.770000000000001</v>
       </c>
       <c r="E17" s="2">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="F17" s="2">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="G17" s="2">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7" t="s">
+        <v>7.5</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I17" s="2"/>
@@ -1035,7 +1627,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1043,21 +1635,21 @@
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2">
-        <v>1</v>
+        <v>0.755000000000001</v>
       </c>
       <c r="E18" s="2">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="F18" s="2">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="G18" s="2">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I18" s="2"/>
@@ -1066,7 +1658,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1074,21 +1666,21 @@
         <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D19" s="2">
-        <v>1</v>
+        <v>0.740000000000001</v>
       </c>
       <c r="E19" s="2">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="F19" s="2">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G19" s="2">
-        <v>1</v>
-      </c>
-      <c r="H19" s="7" t="s">
+        <v>8.5</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I19" s="2"/>
@@ -1097,7 +1689,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1105,21 +1697,21 @@
         <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D20" s="2">
-        <v>1</v>
+        <v>0.725000000000001</v>
       </c>
       <c r="E20" s="2">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="F20" s="2">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="G20" s="2">
-        <v>1</v>
-      </c>
-      <c r="H20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I20" s="2"/>
@@ -1128,7 +1720,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1136,21 +1728,21 @@
         <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D21" s="2">
-        <v>1</v>
+        <v>0.710000000000002</v>
       </c>
       <c r="E21" s="2">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="F21" s="2">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="G21" s="2">
-        <v>1</v>
-      </c>
-      <c r="H21" s="7" t="s">
+        <v>9.5</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I21" s="2"/>
@@ -1159,7 +1751,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1167,21 +1759,21 @@
         <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D22" s="2">
-        <v>1</v>
+        <v>0.695000000000002</v>
       </c>
       <c r="E22" s="2">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="F22" s="2">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="G22" s="2">
-        <v>1</v>
-      </c>
-      <c r="H22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I22" s="2"/>
@@ -1190,7 +1782,7 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1198,21 +1790,21 @@
         <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D23" s="2">
-        <v>1</v>
+        <v>0.680000000000002</v>
       </c>
       <c r="E23" s="2">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="F23" s="2">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="G23" s="2">
-        <v>1</v>
-      </c>
-      <c r="H23" s="7" t="s">
+        <v>10.5</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I23" s="2"/>
@@ -1221,7 +1813,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1229,21 +1821,21 @@
         <v>21</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D24" s="2">
-        <v>1</v>
+        <v>0.665000000000002</v>
       </c>
       <c r="E24" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24" s="2">
-        <v>1</v>
-      </c>
-      <c r="H24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I24" s="2"/>
@@ -1252,7 +1844,7 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1260,21 +1852,21 @@
         <v>22</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D25" s="2">
-        <v>1</v>
+        <v>0.650000000000002</v>
       </c>
       <c r="E25" s="2">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="F25" s="2">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="G25" s="2">
-        <v>1</v>
-      </c>
-      <c r="H25" s="7" t="s">
+        <v>11.5</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I25" s="2"/>
@@ -1283,7 +1875,7 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1291,21 +1883,21 @@
         <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D26" s="2">
-        <v>1</v>
+        <v>0.635000000000002</v>
       </c>
       <c r="E26" s="2">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="F26" s="2">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="G26" s="2">
-        <v>1</v>
-      </c>
-      <c r="H26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I26" s="2"/>
@@ -1314,7 +1906,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1322,21 +1914,21 @@
         <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D27" s="2">
-        <v>1</v>
+        <v>0.620000000000002</v>
       </c>
       <c r="E27" s="2">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="F27" s="2">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="G27" s="2">
-        <v>1</v>
-      </c>
-      <c r="H27" s="7" t="s">
+        <v>12.5</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I27" s="2"/>
@@ -1345,7 +1937,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1353,21 +1945,21 @@
         <v>25</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D28" s="2">
-        <v>1</v>
+        <v>0.605000000000002</v>
       </c>
       <c r="E28" s="2">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="F28" s="2">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="G28" s="2">
-        <v>1</v>
-      </c>
-      <c r="H28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I28" s="2"/>
@@ -1376,7 +1968,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1384,21 +1976,21 @@
         <v>26</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D29" s="2">
-        <v>1</v>
+        <v>0.590000000000002</v>
       </c>
       <c r="E29" s="2">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="F29" s="2">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="G29" s="2">
-        <v>1</v>
-      </c>
-      <c r="H29" s="7" t="s">
+        <v>13.5</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I29" s="2"/>
@@ -1407,7 +1999,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1415,21 +2007,21 @@
         <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D30" s="2">
-        <v>1</v>
+        <v>0.575000000000002</v>
       </c>
       <c r="E30" s="2">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="F30" s="2">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="G30" s="2">
-        <v>1</v>
-      </c>
-      <c r="H30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I30" s="2"/>
@@ -1438,7 +2030,7 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1446,21 +2038,21 @@
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D31" s="2">
-        <v>1</v>
+        <v>0.560000000000002</v>
       </c>
       <c r="E31" s="2">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="F31" s="2">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="G31" s="2">
-        <v>1</v>
-      </c>
-      <c r="H31" s="7" t="s">
+        <v>14.5</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I31" s="2"/>
@@ -1469,7 +2061,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1477,21 +2069,21 @@
         <v>29</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D32" s="2">
-        <v>1</v>
+        <v>0.545000000000003</v>
       </c>
       <c r="E32" s="2">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="F32" s="2">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="G32" s="2">
-        <v>1</v>
-      </c>
-      <c r="H32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I32" s="2"/>
@@ -1500,7 +2092,7 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1508,21 +2100,21 @@
         <v>30</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D33" s="2">
-        <v>1</v>
+        <v>0.530000000000003</v>
       </c>
       <c r="E33" s="2">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="F33" s="2">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="G33" s="2">
-        <v>1</v>
-      </c>
-      <c r="H33" s="7" t="s">
+        <v>15.5</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I33" s="2"/>
@@ -1531,7 +2123,7 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14">
       <c r="A34">
         <v>31</v>
       </c>
@@ -1539,21 +2131,21 @@
         <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D34" s="2">
-        <v>1</v>
+        <v>0.515000000000003</v>
       </c>
       <c r="E34" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F34" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G34" s="2">
-        <v>1</v>
-      </c>
-      <c r="H34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I34" s="2"/>
@@ -1562,7 +2154,7 @@
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14">
       <c r="A35">
         <v>32</v>
       </c>
@@ -1570,21 +2162,21 @@
         <v>32</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D35" s="2">
-        <v>1</v>
+        <v>0.500000000000003</v>
       </c>
       <c r="E35" s="2">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="F35" s="2">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="G35" s="2">
-        <v>1</v>
-      </c>
-      <c r="H35" s="7" t="s">
+        <v>16.5</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I35" s="2"/>
@@ -1593,7 +2185,7 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14">
       <c r="A36">
         <v>33</v>
       </c>
@@ -1601,21 +2193,21 @@
         <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D36" s="2">
-        <v>1</v>
+        <v>0.485000000000003</v>
       </c>
       <c r="E36" s="2">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="F36" s="2">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="G36" s="2">
-        <v>1</v>
-      </c>
-      <c r="H36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I36" s="2"/>
@@ -1624,7 +2216,7 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14">
       <c r="A37">
         <v>34</v>
       </c>
@@ -1632,21 +2224,21 @@
         <v>34</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D37" s="2">
-        <v>1</v>
+        <v>0.470000000000003</v>
       </c>
       <c r="E37" s="2">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="F37" s="2">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="G37" s="2">
-        <v>1</v>
-      </c>
-      <c r="H37" s="7" t="s">
+        <v>17.5</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I37" s="2"/>
@@ -1655,7 +2247,7 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14">
       <c r="A38">
         <v>35</v>
       </c>
@@ -1663,21 +2255,21 @@
         <v>35</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.455000000000003</v>
+      </c>
+      <c r="E38" s="2">
+        <v>4.4</v>
+      </c>
+      <c r="F38" s="2">
+        <v>4.4</v>
+      </c>
+      <c r="G38" s="2">
         <v>18</v>
       </c>
-      <c r="D38" s="2">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2">
-        <v>1</v>
-      </c>
-      <c r="F38" s="2">
-        <v>1</v>
-      </c>
-      <c r="G38" s="2">
-        <v>1</v>
-      </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I38" s="2"/>
@@ -1686,7 +2278,7 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14">
       <c r="A39">
         <v>36</v>
       </c>
@@ -1694,21 +2286,21 @@
         <v>36</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D39" s="2">
-        <v>1</v>
+        <v>0.440000000000003</v>
       </c>
       <c r="E39" s="2">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="F39" s="2">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="G39" s="2">
-        <v>1</v>
-      </c>
-      <c r="H39" s="7" t="s">
+        <v>18.5</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I39" s="2"/>
@@ -1717,7 +2309,7 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14">
       <c r="A40">
         <v>37</v>
       </c>
@@ -1725,21 +2317,21 @@
         <v>37</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D40" s="2">
-        <v>1</v>
+        <v>0.425000000000003</v>
       </c>
       <c r="E40" s="2">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="F40" s="2">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="G40" s="2">
-        <v>1</v>
-      </c>
-      <c r="H40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I40" s="2"/>
@@ -1748,7 +2340,7 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14">
       <c r="A41">
         <v>38</v>
       </c>
@@ -1756,21 +2348,21 @@
         <v>38</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D41" s="2">
-        <v>1</v>
+        <v>0.410000000000003</v>
       </c>
       <c r="E41" s="2">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="F41" s="2">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="G41" s="2">
-        <v>1</v>
-      </c>
-      <c r="H41" s="7" t="s">
+        <v>19.5</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I41" s="2"/>
@@ -1779,7 +2371,7 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14">
       <c r="A42">
         <v>39</v>
       </c>
@@ -1787,21 +2379,21 @@
         <v>39</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D42" s="2">
-        <v>1</v>
+        <v>0.395000000000004</v>
       </c>
       <c r="E42" s="2">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="F42" s="2">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="G42" s="2">
-        <v>1</v>
-      </c>
-      <c r="H42" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I42" s="2"/>
@@ -1810,7 +2402,7 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14">
       <c r="A43">
         <v>40</v>
       </c>
@@ -1818,21 +2410,21 @@
         <v>40</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D43" s="2">
-        <v>1</v>
+        <v>0.380000000000004</v>
       </c>
       <c r="E43" s="2">
-        <v>1</v>
+        <v>4.9</v>
       </c>
       <c r="F43" s="2">
-        <v>1</v>
+        <v>4.9</v>
       </c>
       <c r="G43" s="2">
-        <v>1</v>
-      </c>
-      <c r="H43" s="7" t="s">
+        <v>20.5</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I43" s="2"/>
@@ -1841,7 +2433,7 @@
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14">
       <c r="A44">
         <v>41</v>
       </c>
@@ -1849,21 +2441,21 @@
         <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D44" s="2">
-        <v>1</v>
+        <v>0.365000000000004</v>
       </c>
       <c r="E44" s="2">
-        <v>1</v>
+        <v>4.99999999999999</v>
       </c>
       <c r="F44" s="2">
-        <v>1</v>
+        <v>4.99999999999999</v>
       </c>
       <c r="G44" s="2">
-        <v>1</v>
-      </c>
-      <c r="H44" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I44" s="2"/>
@@ -1872,7 +2464,7 @@
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14">
       <c r="A45">
         <v>42</v>
       </c>
@@ -1880,21 +2472,21 @@
         <v>42</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D45" s="2">
-        <v>1</v>
+        <v>0.350000000000004</v>
       </c>
       <c r="E45" s="2">
-        <v>1</v>
+        <v>5.09999999999999</v>
       </c>
       <c r="F45" s="2">
-        <v>1</v>
+        <v>5.09999999999999</v>
       </c>
       <c r="G45" s="2">
-        <v>1</v>
-      </c>
-      <c r="H45" s="7" t="s">
+        <v>21.5</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I45" s="2"/>
@@ -1903,7 +2495,7 @@
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14">
       <c r="A46">
         <v>43</v>
       </c>
@@ -1911,21 +2503,21 @@
         <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D46" s="2">
-        <v>1</v>
+        <v>0.335000000000004</v>
       </c>
       <c r="E46" s="2">
-        <v>1</v>
+        <v>5.19999999999999</v>
       </c>
       <c r="F46" s="2">
-        <v>1</v>
+        <v>5.19999999999999</v>
       </c>
       <c r="G46" s="2">
-        <v>1</v>
-      </c>
-      <c r="H46" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I46" s="2"/>
@@ -1935,34 +2527,40 @@
       <c r="N46" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>